--- a/data/trans_orig/RUIDO_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A917FB-C658-4A05-9898-B9161E955C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F103F1-57BF-4963-9060-7CB50F7D8809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DAC437B-7AFD-4875-AAE9-23F44CDBE584}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{108408B8-C355-42DF-B3F7-290B15C387A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="282">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera el ruido en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -128,7 +128,7 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>15,62%</t>
+    <t>14,37%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -137,7 +137,7 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>7,18%</t>
+    <t>6,61%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -149,730 +149,736 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>13,2%</t>
+    <t>12,08%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>13,6%</t>
+    <t>15,01%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>24,17%</t>
+    <t>23,3%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>3,95%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>75,1%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1287,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FD385F-2F3B-4F16-BB56-27B99DE540EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB55F66-C885-411B-9BE8-573F2A005D1E}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2475,13 +2481,13 @@
         <v>3238</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2490,13 +2496,13 @@
         <v>3238</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2517,13 @@
         <v>27779</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -2526,13 +2532,13 @@
         <v>22396</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -2541,13 +2547,13 @@
         <v>50175</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2609,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2615,13 +2621,13 @@
         <v>985</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2630,13 +2636,13 @@
         <v>1162</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2645,13 +2651,13 @@
         <v>2147</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2672,13 @@
         <v>822</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2681,13 +2687,13 @@
         <v>852</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2822,10 +2828,10 @@
         <v>86</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2849,13 +2855,13 @@
         <v>2997</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>1717</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2885,13 +2891,13 @@
         <v>2195</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2900,13 +2906,13 @@
         <v>3912</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2927,13 @@
         <v>9252</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -2936,13 +2942,13 @@
         <v>5658</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -2951,13 +2957,13 @@
         <v>14911</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2978,13 @@
         <v>2117</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -2987,13 +2993,13 @@
         <v>1482</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -3002,13 +3008,13 @@
         <v>3599</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3265,13 @@
         <v>2351</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3286,13 @@
         <v>1392</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3295,13 +3301,13 @@
         <v>734</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3310,13 +3316,13 @@
         <v>2126</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,28 +3337,28 @@
         <v>928</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3361,13 +3367,13 @@
         <v>928</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,7 +3394,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3397,13 +3403,13 @@
         <v>398</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3412,13 +3418,13 @@
         <v>398</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3445,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3448,13 +3454,13 @@
         <v>1452</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3463,13 +3469,13 @@
         <v>1452</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3490,13 @@
         <v>1877</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3499,13 +3505,13 @@
         <v>1261</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M45" s="7">
         <v>4</v>
@@ -3514,13 +3520,13 @@
         <v>3138</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3541,13 @@
         <v>938</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -3550,10 +3556,10 @@
         <v>2530</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>178</v>
@@ -3565,13 +3571,13 @@
         <v>3468</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3592,13 @@
         <v>1458</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -3601,13 +3607,13 @@
         <v>1747</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3616,13 +3622,13 @@
         <v>3205</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3643,13 @@
         <v>4419</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
@@ -3652,13 +3658,13 @@
         <v>4206</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M48" s="7">
         <v>12</v>
@@ -3667,13 +3673,13 @@
         <v>8626</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3694,13 @@
         <v>14464</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H49" s="7">
         <v>29</v>
@@ -3703,13 +3709,13 @@
         <v>18964</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M49" s="7">
         <v>53</v>
@@ -3718,13 +3724,13 @@
         <v>33428</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3745,13 @@
         <v>63536</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H50" s="7">
         <v>85</v>
@@ -3754,13 +3760,13 @@
         <v>54038</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M50" s="7">
         <v>169</v>
@@ -3769,13 +3775,13 @@
         <v>117573</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3849,13 @@
         <v>3802</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -3858,13 +3864,13 @@
         <v>1624</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M52" s="7">
         <v>7</v>
@@ -3873,13 +3879,13 @@
         <v>5426</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3900,13 @@
         <v>2215</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -3909,13 +3915,13 @@
         <v>1586</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -3927,10 +3933,10 @@
         <v>79</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3951,13 @@
         <v>928</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3966,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -3975,13 +3981,13 @@
         <v>928</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4002,13 @@
         <v>380</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -4011,13 +4017,13 @@
         <v>398</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -4026,13 +4032,13 @@
         <v>779</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4053,13 @@
         <v>3885</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -4062,13 +4068,13 @@
         <v>1452</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
@@ -4077,13 +4083,13 @@
         <v>5337</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4104,13 @@
         <v>3594</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H57" s="7">
         <v>5</v>
@@ -4113,13 +4119,13 @@
         <v>3456</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="M57" s="7">
         <v>9</v>
@@ -4128,13 +4134,13 @@
         <v>7050</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4155,13 @@
         <v>10190</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H58" s="7">
         <v>9</v>
@@ -4164,13 +4170,13 @@
         <v>8188</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M58" s="7">
         <v>20</v>
@@ -4179,13 +4185,13 @@
         <v>18378</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4206,13 @@
         <v>3574</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="H59" s="7">
         <v>7</v>
@@ -4215,13 +4221,13 @@
         <v>3975</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="M59" s="7">
         <v>13</v>
@@ -4230,13 +4236,13 @@
         <v>7549</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4257,13 @@
         <v>21973</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="H60" s="7">
         <v>23</v>
@@ -4266,13 +4272,13 @@
         <v>15800</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="M60" s="7">
         <v>55</v>
@@ -4281,13 +4287,13 @@
         <v>37773</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4308,13 @@
         <v>41850</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H61" s="7">
         <v>65</v>
@@ -4317,13 +4323,13 @@
         <v>40557</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M61" s="7">
         <v>128</v>
@@ -4332,13 +4338,13 @@
         <v>82407</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4359,13 @@
         <v>278687</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H62" s="7">
         <v>351</v>
@@ -4368,13 +4374,13 @@
         <v>238977</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M62" s="7">
         <v>733</v>
@@ -4383,13 +4389,13 @@
         <v>517663</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4451,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
